--- a/Lines Plan - Oil Tanker 20704 DWT - Maxsurf.xlsx
+++ b/Lines Plan - Oil Tanker 20704 DWT - Maxsurf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11gabillah\12gabillah\Rangkuman Engineering\Projek Ship Lines Plan &amp; Genenral Arrangement, 20704 DWT Oil Tanker, MTM Antwerp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11gabillah\12gabillah\Rangkuman Engineering\Projek Ship Oil Tanker 20704 DWT - (main branch)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C04AC09-7CDD-45D8-B41F-4BA431DC271B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1802997C-22BF-4163-89A4-F22FBC6C45A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3038,6 +3038,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3056,51 +3113,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3130,18 +3142,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4774,8 +4774,8 @@
   </sheetPr>
   <dimension ref="A1:L434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="97" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="97" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4801,21 +4801,21 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="160" t="s">
+      <c r="H1" s="165" t="s">
         <v>351</v>
       </c>
-      <c r="I1" s="161"/>
+      <c r="I1" s="166"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="167" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
       <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4826,13 +4826,13 @@
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
       <c r="H3" s="5" t="s">
         <v>1</v>
       </c>
@@ -5072,28 +5072,28 @@
       <c r="A33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="152" t="s">
+      <c r="A34" s="171" t="s">
         <v>334</v>
       </c>
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
+      <c r="B34" s="171"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="152"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
+      <c r="A35" s="171"/>
+      <c r="B35" s="171"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
@@ -5399,12 +5399,12 @@
       <c r="B63" s="20"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="163" t="s">
+      <c r="B64" s="168" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="163"/>
+      <c r="B65" s="168"/>
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
@@ -5526,15 +5526,15 @@
       <c r="F78" s="134" t="s">
         <v>199</v>
       </c>
-      <c r="G78" s="164" t="s">
+      <c r="G78" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="H78" s="164"/>
-      <c r="I78" s="164" t="s">
+      <c r="H78" s="169"/>
+      <c r="I78" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="J78" s="164"/>
-      <c r="K78" s="164"/>
+      <c r="J78" s="169"/>
+      <c r="K78" s="169"/>
     </row>
     <row r="79" spans="1:11" s="17" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
@@ -5559,16 +5559,16 @@
         <f>_xlfn.XLOOKUP($C$76, ShipType_ref, LpB_max_ref)</f>
         <v>6.5</v>
       </c>
-      <c r="G79" s="165" t="str">
+      <c r="G79" s="162" t="str">
         <f>E79&amp;" &lt; " &amp;B79&amp; " &lt; "&amp;F79</f>
         <v>5 &lt; L/B &lt; 6.5</v>
       </c>
-      <c r="H79" s="165"/>
-      <c r="I79" s="166" t="s">
+      <c r="H79" s="162"/>
+      <c r="I79" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="J79" s="166"/>
-      <c r="K79" s="166"/>
+      <c r="J79" s="157"/>
+      <c r="K79" s="157"/>
     </row>
     <row r="80" spans="1:11" s="17" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
@@ -5593,16 +5593,16 @@
         <f>_xlfn.XLOOKUP($C$76, ShipType_ref, BpT_max_ref)</f>
         <v>2.9</v>
       </c>
-      <c r="G80" s="165" t="str">
+      <c r="G80" s="162" t="str">
         <f t="shared" ref="G80:G83" si="0">E80&amp;" &lt; " &amp;B80&amp; " &lt; "&amp;F80</f>
         <v>2.2 &lt; B/T &lt; 2.9</v>
       </c>
-      <c r="H80" s="165"/>
-      <c r="I80" s="166" t="s">
+      <c r="H80" s="162"/>
+      <c r="I80" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="J80" s="166"/>
-      <c r="K80" s="166"/>
+      <c r="J80" s="157"/>
+      <c r="K80" s="157"/>
     </row>
     <row r="81" spans="1:11" s="17" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
@@ -5625,16 +5625,16 @@
       <c r="F81" s="151">
         <v>30</v>
       </c>
-      <c r="G81" s="165" t="str">
+      <c r="G81" s="162" t="str">
         <f t="shared" si="0"/>
         <v>10 &lt; L/T &lt; 30</v>
       </c>
-      <c r="H81" s="165"/>
-      <c r="I81" s="166" t="s">
+      <c r="H81" s="162"/>
+      <c r="I81" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="J81" s="166"/>
-      <c r="K81" s="166"/>
+      <c r="J81" s="157"/>
+      <c r="K81" s="157"/>
     </row>
     <row r="82" spans="1:11" s="17" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
@@ -5657,16 +5657,16 @@
       <c r="F82" s="151">
         <v>20</v>
       </c>
-      <c r="G82" s="165" t="str">
+      <c r="G82" s="162" t="str">
         <f t="shared" si="0"/>
         <v>10 &lt; L/H &lt; 20</v>
       </c>
-      <c r="H82" s="165"/>
-      <c r="I82" s="166" t="s">
+      <c r="H82" s="162"/>
+      <c r="I82" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="J82" s="166"/>
-      <c r="K82" s="166"/>
+      <c r="J82" s="157"/>
+      <c r="K82" s="157"/>
     </row>
     <row r="83" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
@@ -5689,16 +5689,16 @@
       <c r="F83" s="151">
         <v>2</v>
       </c>
-      <c r="G83" s="165" t="str">
+      <c r="G83" s="162" t="str">
         <f t="shared" si="0"/>
         <v>1.9 &lt; B/H &lt; 2</v>
       </c>
-      <c r="H83" s="165"/>
-      <c r="I83" s="166" t="s">
+      <c r="H83" s="162"/>
+      <c r="I83" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="J83" s="166"/>
-      <c r="K83" s="166"/>
+      <c r="J83" s="157"/>
+      <c r="K83" s="157"/>
     </row>
     <row r="84" spans="1:11" s="17" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
@@ -5723,16 +5723,16 @@
         <f>1E+99</f>
         <v>9.9999999999999997E+98</v>
       </c>
-      <c r="G84" s="169" t="str">
+      <c r="G84" s="163" t="str">
         <f>"T/H &gt;= " &amp; E84</f>
         <v>T/H &gt;= 0.78</v>
       </c>
-      <c r="H84" s="169"/>
-      <c r="I84" s="166" t="s">
+      <c r="H84" s="163"/>
+      <c r="I84" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="J84" s="166"/>
-      <c r="K84" s="166"/>
+      <c r="J84" s="157"/>
+      <c r="K84" s="157"/>
     </row>
     <row r="85" spans="1:11" s="17" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
@@ -5757,15 +5757,15 @@
         <f>1E+99</f>
         <v>9.9999999999999997E+98</v>
       </c>
-      <c r="G85" s="165" t="s">
+      <c r="G85" s="162" t="s">
         <v>349</v>
       </c>
-      <c r="H85" s="165"/>
-      <c r="I85" s="167" t="s">
+      <c r="H85" s="162"/>
+      <c r="I85" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="J85" s="167"/>
-      <c r="K85" s="167"/>
+      <c r="J85" s="156"/>
+      <c r="K85" s="156"/>
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="34"/>
@@ -5889,10 +5889,10 @@
     </row>
     <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="34"/>
-      <c r="B98" s="171" t="s">
+      <c r="B98" s="159" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="171"/>
+      <c r="C98" s="159"/>
       <c r="D98" s="31" t="s">
         <v>105</v>
       </c>
@@ -5913,27 +5913,27 @@
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="34"/>
-      <c r="B100" s="170" t="s">
+      <c r="B100" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="C100" s="170"/>
-      <c r="D100" s="170"/>
-      <c r="E100" s="170"/>
-      <c r="F100" s="170"/>
-      <c r="G100" s="170"/>
-      <c r="H100" s="170"/>
-      <c r="I100" s="170"/>
+      <c r="C100" s="158"/>
+      <c r="D100" s="158"/>
+      <c r="E100" s="158"/>
+      <c r="F100" s="158"/>
+      <c r="G100" s="158"/>
+      <c r="H100" s="158"/>
+      <c r="I100" s="158"/>
     </row>
     <row r="101" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="34"/>
-      <c r="B101" s="170"/>
-      <c r="C101" s="170"/>
-      <c r="D101" s="170"/>
-      <c r="E101" s="170"/>
-      <c r="F101" s="170"/>
-      <c r="G101" s="170"/>
-      <c r="H101" s="170"/>
-      <c r="I101" s="170"/>
+      <c r="B101" s="158"/>
+      <c r="C101" s="158"/>
+      <c r="D101" s="158"/>
+      <c r="E101" s="158"/>
+      <c r="F101" s="158"/>
+      <c r="G101" s="158"/>
+      <c r="H101" s="158"/>
+      <c r="I101" s="158"/>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="34"/>
@@ -5973,10 +5973,10 @@
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="34"/>
-      <c r="B105" s="172" t="s">
+      <c r="B105" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="172"/>
+      <c r="C105" s="160"/>
       <c r="D105" s="77">
         <f>((-4.22)+(27.8*(SQRT(Fn)))-(39.1*Fn)+(46.6*(Fn^3)))</f>
         <v>0.70197678237994154</v>
@@ -6007,27 +6007,27 @@
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="34"/>
-      <c r="B108" s="158" t="s">
+      <c r="B108" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="158"/>
-      <c r="D108" s="158"/>
-      <c r="E108" s="158"/>
-      <c r="F108" s="158"/>
-      <c r="G108" s="158"/>
-      <c r="H108" s="158"/>
-      <c r="I108" s="158"/>
+      <c r="C108" s="164"/>
+      <c r="D108" s="164"/>
+      <c r="E108" s="164"/>
+      <c r="F108" s="164"/>
+      <c r="G108" s="164"/>
+      <c r="H108" s="164"/>
+      <c r="I108" s="164"/>
     </row>
     <row r="109" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="34"/>
-      <c r="B109" s="158"/>
-      <c r="C109" s="158"/>
-      <c r="D109" s="158"/>
-      <c r="E109" s="158"/>
-      <c r="F109" s="158"/>
-      <c r="G109" s="158"/>
-      <c r="H109" s="158"/>
-      <c r="I109" s="158"/>
+      <c r="B109" s="164"/>
+      <c r="C109" s="164"/>
+      <c r="D109" s="164"/>
+      <c r="E109" s="164"/>
+      <c r="F109" s="164"/>
+      <c r="G109" s="164"/>
+      <c r="H109" s="164"/>
+      <c r="I109" s="164"/>
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="34"/>
@@ -6071,16 +6071,16 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="158" t="s">
+      <c r="B114" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="158"/>
-      <c r="D114" s="158"/>
-      <c r="E114" s="158"/>
-      <c r="F114" s="158"/>
-      <c r="G114" s="158"/>
-      <c r="H114" s="158"/>
-      <c r="I114" s="158"/>
+      <c r="C114" s="164"/>
+      <c r="D114" s="164"/>
+      <c r="E114" s="164"/>
+      <c r="F114" s="164"/>
+      <c r="G114" s="164"/>
+      <c r="H114" s="164"/>
+      <c r="I114" s="164"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B115" s="38" t="s">
@@ -6127,27 +6127,27 @@
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="34"/>
-      <c r="B119" s="158" t="s">
+      <c r="B119" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="158"/>
-      <c r="D119" s="158"/>
-      <c r="E119" s="158"/>
-      <c r="F119" s="158"/>
-      <c r="G119" s="158"/>
-      <c r="H119" s="158"/>
-      <c r="I119" s="158"/>
+      <c r="C119" s="164"/>
+      <c r="D119" s="164"/>
+      <c r="E119" s="164"/>
+      <c r="F119" s="164"/>
+      <c r="G119" s="164"/>
+      <c r="H119" s="164"/>
+      <c r="I119" s="164"/>
     </row>
     <row r="120" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="34"/>
-      <c r="B120" s="158"/>
-      <c r="C120" s="158"/>
-      <c r="D120" s="158"/>
-      <c r="E120" s="158"/>
-      <c r="F120" s="158"/>
-      <c r="G120" s="158"/>
-      <c r="H120" s="158"/>
-      <c r="I120" s="158"/>
+      <c r="B120" s="164"/>
+      <c r="C120" s="164"/>
+      <c r="D120" s="164"/>
+      <c r="E120" s="164"/>
+      <c r="F120" s="164"/>
+      <c r="G120" s="164"/>
+      <c r="H120" s="164"/>
+      <c r="I120" s="164"/>
     </row>
     <row r="121" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="34"/>
@@ -6196,27 +6196,27 @@
     </row>
     <row r="125" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34"/>
-      <c r="B125" s="158" t="s">
+      <c r="B125" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="C125" s="158"/>
-      <c r="D125" s="158"/>
-      <c r="E125" s="158"/>
-      <c r="F125" s="158"/>
-      <c r="G125" s="158"/>
-      <c r="H125" s="158"/>
-      <c r="I125" s="158"/>
+      <c r="C125" s="164"/>
+      <c r="D125" s="164"/>
+      <c r="E125" s="164"/>
+      <c r="F125" s="164"/>
+      <c r="G125" s="164"/>
+      <c r="H125" s="164"/>
+      <c r="I125" s="164"/>
     </row>
     <row r="126" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="34"/>
-      <c r="B126" s="158"/>
-      <c r="C126" s="158"/>
-      <c r="D126" s="158"/>
-      <c r="E126" s="158"/>
-      <c r="F126" s="158"/>
-      <c r="G126" s="158"/>
-      <c r="H126" s="158"/>
-      <c r="I126" s="158"/>
+      <c r="B126" s="164"/>
+      <c r="C126" s="164"/>
+      <c r="D126" s="164"/>
+      <c r="E126" s="164"/>
+      <c r="F126" s="164"/>
+      <c r="G126" s="164"/>
+      <c r="H126" s="164"/>
+      <c r="I126" s="164"/>
     </row>
     <row r="127" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="34"/>
@@ -6257,23 +6257,23 @@
         <f>C128% * LPP_m</f>
         <v>0.43342054367951438</v>
       </c>
-      <c r="D129" s="168" t="s">
+      <c r="D129" s="155" t="s">
         <v>126</v>
       </c>
-      <c r="E129" s="168"/>
-      <c r="F129" s="168"/>
-      <c r="G129" s="168"/>
-      <c r="H129" s="168"/>
-      <c r="I129" s="168"/>
+      <c r="E129" s="155"/>
+      <c r="F129" s="155"/>
+      <c r="G129" s="155"/>
+      <c r="H129" s="155"/>
+      <c r="I129" s="155"/>
     </row>
     <row r="130" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="14"/>
-      <c r="D130" s="168"/>
-      <c r="E130" s="168"/>
-      <c r="F130" s="168"/>
-      <c r="G130" s="168"/>
-      <c r="H130" s="168"/>
-      <c r="I130" s="168"/>
+      <c r="D130" s="155"/>
+      <c r="E130" s="155"/>
+      <c r="F130" s="155"/>
+      <c r="G130" s="155"/>
+      <c r="H130" s="155"/>
+      <c r="I130" s="155"/>
     </row>
     <row r="131" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="82" t="s">
@@ -6382,38 +6382,38 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="158" t="s">
+      <c r="B145" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="C145" s="158"/>
-      <c r="D145" s="158"/>
-      <c r="E145" s="158"/>
-      <c r="F145" s="158"/>
-      <c r="G145" s="158"/>
-      <c r="H145" s="158"/>
-      <c r="I145" s="158"/>
+      <c r="C145" s="164"/>
+      <c r="D145" s="164"/>
+      <c r="E145" s="164"/>
+      <c r="F145" s="164"/>
+      <c r="G145" s="164"/>
+      <c r="H145" s="164"/>
+      <c r="I145" s="164"/>
       <c r="J145" s="17"/>
     </row>
     <row r="146" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="158"/>
-      <c r="C146" s="158"/>
-      <c r="D146" s="158"/>
-      <c r="E146" s="158"/>
-      <c r="F146" s="158"/>
-      <c r="G146" s="158"/>
-      <c r="H146" s="158"/>
-      <c r="I146" s="158"/>
+      <c r="B146" s="164"/>
+      <c r="C146" s="164"/>
+      <c r="D146" s="164"/>
+      <c r="E146" s="164"/>
+      <c r="F146" s="164"/>
+      <c r="G146" s="164"/>
+      <c r="H146" s="164"/>
+      <c r="I146" s="164"/>
       <c r="J146" s="17"/>
     </row>
     <row r="147" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="158"/>
-      <c r="C147" s="158"/>
-      <c r="D147" s="158"/>
-      <c r="E147" s="158"/>
-      <c r="F147" s="158"/>
-      <c r="G147" s="158"/>
-      <c r="H147" s="158"/>
-      <c r="I147" s="158"/>
+      <c r="B147" s="164"/>
+      <c r="C147" s="164"/>
+      <c r="D147" s="164"/>
+      <c r="E147" s="164"/>
+      <c r="F147" s="164"/>
+      <c r="G147" s="164"/>
+      <c r="H147" s="164"/>
+      <c r="I147" s="164"/>
       <c r="J147" s="17"/>
     </row>
     <row r="148" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6459,10 +6459,10 @@
       <c r="C152" s="24"/>
     </row>
     <row r="153" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="167" t="s">
+      <c r="B153" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="C153" s="167"/>
+      <c r="C153" s="156"/>
       <c r="D153" s="48" t="str">
         <f>C39</f>
         <v>MTM Antwerp</v>
@@ -6470,10 +6470,10 @@
       <c r="E153" s="41"/>
     </row>
     <row r="154" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="167" t="s">
+      <c r="B154" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="C154" s="167"/>
+      <c r="C154" s="156"/>
       <c r="D154" s="48" t="str">
         <f>C40</f>
         <v>Oil Tanker</v>
@@ -6481,10 +6481,10 @@
       <c r="E154" s="97"/>
     </row>
     <row r="155" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="167" t="s">
+      <c r="B155" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="167"/>
+      <c r="C155" s="156"/>
       <c r="D155" s="48">
         <f>C41</f>
         <v>9291456</v>
@@ -6492,10 +6492,10 @@
       <c r="E155" s="97"/>
     </row>
     <row r="156" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="167" t="s">
+      <c r="B156" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="167"/>
+      <c r="C156" s="156"/>
       <c r="D156" s="48" t="str">
         <f>C42</f>
         <v>NKK</v>
@@ -6503,22 +6503,22 @@
       <c r="E156" s="97"/>
     </row>
     <row r="157" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="184" t="s">
+      <c r="B157" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="C157" s="184"/>
-      <c r="D157" s="183">
+      <c r="C157" s="161"/>
+      <c r="D157" s="152">
         <v>145.53</v>
       </c>
-      <c r="E157" s="185" t="s">
+      <c r="E157" s="153" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="166" t="s">
+      <c r="B158" s="157" t="s">
         <v>144</v>
       </c>
-      <c r="C158" s="166"/>
+      <c r="C158" s="157"/>
       <c r="D158" s="139">
         <f>LPP_m</f>
         <v>137</v>
@@ -6528,10 +6528,10 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="166" t="s">
+      <c r="B159" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="C159" s="166"/>
+      <c r="C159" s="157"/>
       <c r="D159" s="139">
         <f>LWL_m</f>
         <v>142.48000000000002</v>
@@ -6541,10 +6541,10 @@
       </c>
     </row>
     <row r="160" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="167" t="s">
+      <c r="B160" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="C160" s="167"/>
+      <c r="C160" s="156"/>
       <c r="D160" s="139">
         <f>H_m</f>
         <v>13.35</v>
@@ -6554,10 +6554,10 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="167" t="s">
+      <c r="B161" s="156" t="s">
         <v>145</v>
       </c>
-      <c r="C161" s="167"/>
+      <c r="C161" s="156"/>
       <c r="D161" s="139">
         <f>B_m</f>
         <v>23.7</v>
@@ -6567,10 +6567,10 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="167" t="s">
+      <c r="B162" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="C162" s="167"/>
+      <c r="C162" s="156"/>
       <c r="D162" s="139">
         <f>T_m</f>
         <v>9.9469999999999992</v>
@@ -6580,10 +6580,10 @@
       </c>
     </row>
     <row r="163" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="167" t="s">
+      <c r="B163" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="C163" s="167"/>
+      <c r="C163" s="156"/>
       <c r="D163" s="139">
         <f>Vs_knot</f>
         <v>16.3</v>
@@ -6593,10 +6593,10 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="167" t="s">
+      <c r="B164" s="156" t="s">
         <v>141</v>
       </c>
-      <c r="C164" s="167"/>
+      <c r="C164" s="156"/>
       <c r="D164" s="139">
         <f>Vs_mps</f>
         <v>8.3847199999999997</v>
@@ -6606,10 +6606,10 @@
       </c>
     </row>
     <row r="165" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="167" t="s">
+      <c r="B165" s="156" t="s">
         <v>142</v>
       </c>
-      <c r="C165" s="167"/>
+      <c r="C165" s="156"/>
       <c r="D165" s="139">
         <f>MassaJenisAirLaut</f>
         <v>1.0249999999999999</v>
@@ -6619,10 +6619,10 @@
       </c>
     </row>
     <row r="166" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="167" t="s">
+      <c r="B166" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="C166" s="167"/>
+      <c r="C166" s="156"/>
       <c r="D166" s="139">
         <f>Cb</f>
         <v>0.70197678237994154</v>
@@ -6630,10 +6630,10 @@
       <c r="E166" s="41"/>
     </row>
     <row r="167" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="167" t="s">
+      <c r="B167" s="156" t="s">
         <v>150</v>
       </c>
-      <c r="C167" s="167"/>
+      <c r="C167" s="156"/>
       <c r="D167" s="139">
         <f>Cm</f>
         <v>0.98566802650229501</v>
@@ -6641,10 +6641,10 @@
       <c r="E167" s="41"/>
     </row>
     <row r="168" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="167" t="s">
+      <c r="B168" s="156" t="s">
         <v>152</v>
       </c>
-      <c r="C168" s="167"/>
+      <c r="C168" s="156"/>
       <c r="D168" s="139">
         <f>Cp</f>
         <v>0.71218378146134076</v>
@@ -6652,10 +6652,10 @@
       <c r="E168" s="41"/>
     </row>
     <row r="169" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="167" t="s">
+      <c r="B169" s="156" t="s">
         <v>151</v>
       </c>
-      <c r="C169" s="167"/>
+      <c r="C169" s="156"/>
       <c r="D169" s="139">
         <f>Cwp</f>
         <v>0.79247805205675315</v>
@@ -6663,10 +6663,10 @@
       <c r="E169" s="41"/>
     </row>
     <row r="170" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="166" t="s">
+      <c r="B170" s="157" t="s">
         <v>153</v>
       </c>
-      <c r="C170" s="166"/>
+      <c r="C170" s="157"/>
       <c r="D170" s="139">
         <f>C128</f>
         <v>0.3163653603500105</v>
@@ -6676,10 +6676,10 @@
       </c>
     </row>
     <row r="171" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="167" t="s">
+      <c r="B171" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="C171" s="167"/>
+      <c r="C171" s="156"/>
       <c r="D171" s="139">
         <f>Disp_ton</f>
         <v>24168.015123868292</v>
@@ -6689,10 +6689,10 @@
       </c>
     </row>
     <row r="172" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="167" t="s">
+      <c r="B172" s="156" t="s">
         <v>155</v>
       </c>
-      <c r="C172" s="167"/>
+      <c r="C172" s="156"/>
       <c r="D172" s="139">
         <f>Vdisp_m3</f>
         <v>23578.55134035931</v>
@@ -6702,10 +6702,10 @@
       </c>
     </row>
     <row r="173" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="167" t="s">
+      <c r="B173" s="156" t="s">
         <v>156</v>
       </c>
-      <c r="C173" s="167"/>
+      <c r="C173" s="156"/>
       <c r="D173" s="139">
         <f>Fn</f>
         <v>0.22427305935938685</v>
@@ -6754,27 +6754,27 @@
       <c r="B179" s="23"/>
     </row>
     <row r="180" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="168" t="s">
+      <c r="B180" s="155" t="s">
         <v>264</v>
       </c>
-      <c r="C180" s="168"/>
-      <c r="D180" s="168"/>
-      <c r="E180" s="168"/>
-      <c r="F180" s="168"/>
-      <c r="G180" s="168"/>
-      <c r="H180" s="168"/>
-      <c r="I180" s="168"/>
+      <c r="C180" s="155"/>
+      <c r="D180" s="155"/>
+      <c r="E180" s="155"/>
+      <c r="F180" s="155"/>
+      <c r="G180" s="155"/>
+      <c r="H180" s="155"/>
+      <c r="I180" s="155"/>
     </row>
     <row r="181" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
-      <c r="B181" s="168"/>
-      <c r="C181" s="168"/>
-      <c r="D181" s="168"/>
-      <c r="E181" s="168"/>
-      <c r="F181" s="168"/>
-      <c r="G181" s="168"/>
-      <c r="H181" s="168"/>
-      <c r="I181" s="168"/>
+      <c r="B181" s="155"/>
+      <c r="C181" s="155"/>
+      <c r="D181" s="155"/>
+      <c r="E181" s="155"/>
+      <c r="F181" s="155"/>
+      <c r="G181" s="155"/>
+      <c r="H181" s="155"/>
+      <c r="I181" s="155"/>
     </row>
     <row r="182" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="14"/>
@@ -6808,7 +6808,7 @@
       <c r="B196" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C196" s="186">
+      <c r="C196" s="154">
         <f>((0.5*((B_m*T_m)- Am_m2 ))/(1-((1/4)*PI())))^0.5</f>
         <v>2.8057018281759216</v>
       </c>
@@ -6821,7 +6821,7 @@
       <c r="B197" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="C197" s="186">
+      <c r="C197" s="154">
         <f>(1/4)*PI()*(C196^2)</f>
         <v>6.1826250851069027</v>
       </c>
@@ -6839,7 +6839,7 @@
       <c r="B198" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C198" s="186">
+      <c r="C198" s="154">
         <f>(C196^2)*(1-((1/4)*PI()))</f>
         <v>1.6893376635228068</v>
       </c>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="199" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="150"/>
-      <c r="C199" s="186">
+      <c r="C199" s="154">
         <f>C196^2- C197</f>
         <v>1.6893376635228066</v>
       </c>
@@ -6881,10 +6881,10 @@
       <c r="J200" s="17"/>
     </row>
     <row r="201" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="159" t="s">
+      <c r="B201" s="170" t="s">
         <v>168</v>
       </c>
-      <c r="C201" s="159"/>
+      <c r="C201" s="170"/>
       <c r="D201" s="142">
         <f>B_m</f>
         <v>23.7</v>
@@ -6899,10 +6899,10 @@
       <c r="J201" s="17"/>
     </row>
     <row r="202" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="159" t="s">
+      <c r="B202" s="170" t="s">
         <v>170</v>
       </c>
-      <c r="C202" s="159"/>
+      <c r="C202" s="170"/>
       <c r="D202" s="142">
         <f>H_m</f>
         <v>13.35</v>
@@ -6914,10 +6914,10 @@
     </row>
     <row r="203" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
-      <c r="B203" s="159" t="s">
+      <c r="B203" s="170" t="s">
         <v>171</v>
       </c>
-      <c r="C203" s="159"/>
+      <c r="C203" s="170"/>
       <c r="D203" s="142">
         <f>T_m</f>
         <v>9.9469999999999992</v>
@@ -6927,10 +6927,10 @@
       </c>
     </row>
     <row r="204" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B204" s="159" t="s">
+      <c r="B204" s="170" t="s">
         <v>172</v>
       </c>
-      <c r="C204" s="159"/>
+      <c r="C204" s="170"/>
       <c r="D204" s="142">
         <f>Am_m2</f>
         <v>232.36522467295435</v>
@@ -7052,10 +7052,10 @@
       <c r="C225" s="14"/>
     </row>
     <row r="226" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="159" t="s">
+      <c r="B226" s="170" t="s">
         <v>207</v>
       </c>
-      <c r="C226" s="159"/>
+      <c r="C226" s="170"/>
       <c r="D226" s="59">
         <f>LPP_m</f>
         <v>137</v>
@@ -7065,10 +7065,10 @@
       </c>
     </row>
     <row r="227" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="159" t="s">
+      <c r="B227" s="170" t="s">
         <v>327</v>
       </c>
-      <c r="C227" s="159"/>
+      <c r="C227" s="170"/>
       <c r="D227" s="59">
         <f>LWL_m</f>
         <v>142.48000000000002</v>
@@ -7082,10 +7082,10 @@
       </c>
     </row>
     <row r="228" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="159" t="s">
+      <c r="B228" s="170" t="s">
         <v>168</v>
       </c>
-      <c r="C228" s="159"/>
+      <c r="C228" s="170"/>
       <c r="D228" s="59">
         <f>B_m</f>
         <v>23.7</v>
@@ -7099,10 +7099,10 @@
       </c>
     </row>
     <row r="229" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="159" t="s">
+      <c r="B229" s="170" t="s">
         <v>170</v>
       </c>
-      <c r="C229" s="159"/>
+      <c r="C229" s="170"/>
       <c r="D229" s="59">
         <f>H_m</f>
         <v>13.35</v>
@@ -7112,10 +7112,10 @@
       </c>
     </row>
     <row r="230" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="159" t="s">
+      <c r="B230" s="170" t="s">
         <v>171</v>
       </c>
-      <c r="C230" s="159"/>
+      <c r="C230" s="170"/>
       <c r="D230" s="59">
         <f>T_m</f>
         <v>9.9469999999999992</v>
@@ -7125,10 +7125,10 @@
       </c>
     </row>
     <row r="231" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="159" t="s">
+      <c r="B231" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="C231" s="159"/>
+      <c r="C231" s="170"/>
       <c r="D231" s="59">
         <f>LWL_m</f>
         <v>142.48000000000002</v>
@@ -7600,11 +7600,11 @@
       <c r="E298" s="58"/>
     </row>
     <row r="299" spans="2:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B299" s="153" t="s">
+      <c r="B299" s="172" t="s">
         <v>208</v>
       </c>
-      <c r="C299" s="153"/>
-      <c r="D299" s="153"/>
+      <c r="C299" s="172"/>
+      <c r="D299" s="172"/>
       <c r="E299" s="84" t="s">
         <v>262</v>
       </c>
@@ -7619,11 +7619,11 @@
       </c>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B300" s="156" t="s">
+      <c r="B300" s="175" t="s">
         <v>259</v>
       </c>
-      <c r="C300" s="156"/>
-      <c r="D300" s="156"/>
+      <c r="C300" s="175"/>
+      <c r="D300" s="175"/>
       <c r="E300" s="66">
         <f>0.35*C282</f>
         <v>3.4814499999999997</v>
@@ -7641,11 +7641,11 @@
       </c>
     </row>
     <row r="301" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="156" t="s">
+      <c r="B301" s="175" t="s">
         <v>210</v>
       </c>
-      <c r="C301" s="156"/>
-      <c r="D301" s="156"/>
+      <c r="C301" s="175"/>
+      <c r="D301" s="175"/>
       <c r="E301" s="67">
         <v>1.8</v>
       </c>
@@ -7661,11 +7661,11 @@
       </c>
     </row>
     <row r="302" spans="2:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="156" t="s">
+      <c r="B302" s="175" t="s">
         <v>239</v>
       </c>
-      <c r="C302" s="156"/>
-      <c r="D302" s="156"/>
+      <c r="C302" s="175"/>
+      <c r="D302" s="175"/>
       <c r="E302" s="67">
         <f>18%*D226</f>
         <v>24.66</v>
@@ -7682,11 +7682,11 @@
       </c>
     </row>
     <row r="303" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="156" t="s">
+      <c r="B303" s="175" t="s">
         <v>272</v>
       </c>
-      <c r="C303" s="156"/>
-      <c r="D303" s="156"/>
+      <c r="C303" s="175"/>
+      <c r="D303" s="175"/>
       <c r="E303" s="67">
         <f>7.5%*D226</f>
         <v>10.275</v>
@@ -7735,49 +7735,49 @@
     </row>
     <row r="309" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="33"/>
-      <c r="B309" s="157" t="s">
+      <c r="B309" s="176" t="s">
         <v>251</v>
       </c>
-      <c r="C309" s="157"/>
-      <c r="D309" s="157"/>
-      <c r="E309" s="157"/>
-      <c r="F309" s="157"/>
-      <c r="G309" s="157"/>
-      <c r="H309" s="157"/>
+      <c r="C309" s="176"/>
+      <c r="D309" s="176"/>
+      <c r="E309" s="176"/>
+      <c r="F309" s="176"/>
+      <c r="G309" s="176"/>
+      <c r="H309" s="176"/>
     </row>
     <row r="310" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="33"/>
-      <c r="B310" s="158" t="s">
+      <c r="B310" s="164" t="s">
         <v>328</v>
       </c>
-      <c r="C310" s="158"/>
-      <c r="D310" s="158"/>
-      <c r="E310" s="158"/>
-      <c r="F310" s="158"/>
-      <c r="G310" s="158"/>
-      <c r="H310" s="158"/>
+      <c r="C310" s="164"/>
+      <c r="D310" s="164"/>
+      <c r="E310" s="164"/>
+      <c r="F310" s="164"/>
+      <c r="G310" s="164"/>
+      <c r="H310" s="164"/>
     </row>
     <row r="311" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="33"/>
-      <c r="B311" s="158"/>
-      <c r="C311" s="158"/>
-      <c r="D311" s="158"/>
-      <c r="E311" s="158"/>
-      <c r="F311" s="158"/>
-      <c r="G311" s="158"/>
-      <c r="H311" s="158"/>
+      <c r="B311" s="164"/>
+      <c r="C311" s="164"/>
+      <c r="D311" s="164"/>
+      <c r="E311" s="164"/>
+      <c r="F311" s="164"/>
+      <c r="G311" s="164"/>
+      <c r="H311" s="164"/>
     </row>
     <row r="312" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="33"/>
-      <c r="B312" s="157" t="s">
+      <c r="B312" s="176" t="s">
         <v>242</v>
       </c>
-      <c r="C312" s="157"/>
-      <c r="D312" s="157"/>
-      <c r="E312" s="157"/>
-      <c r="F312" s="157"/>
-      <c r="G312" s="157"/>
-      <c r="H312" s="157"/>
+      <c r="C312" s="176"/>
+      <c r="D312" s="176"/>
+      <c r="E312" s="176"/>
+      <c r="F312" s="176"/>
+      <c r="G312" s="176"/>
+      <c r="H312" s="176"/>
     </row>
     <row r="313" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="33"/>
@@ -8189,10 +8189,10 @@
       <c r="E369" s="58"/>
     </row>
     <row r="370" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B370" s="154" t="s">
+      <c r="B370" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="C370" s="154"/>
+      <c r="C370" s="173"/>
       <c r="D370" s="68">
         <v>1173.2671</v>
       </c>
@@ -8201,10 +8201,10 @@
       </c>
     </row>
     <row r="371" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B371" s="155" t="s">
+      <c r="B371" s="174" t="s">
         <v>241</v>
       </c>
-      <c r="C371" s="155"/>
+      <c r="C371" s="174"/>
       <c r="D371" s="75">
         <f>D370*2</f>
         <v>2346.5342000000001</v>
@@ -8566,7 +8566,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="413" spans="1:6" s="49" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="94" t="s">
         <v>79</v>
       </c>
@@ -8931,14 +8931,54 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B180:I181"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="A34:I35"/>
+    <mergeCell ref="B299:D299"/>
+    <mergeCell ref="B370:C370"/>
+    <mergeCell ref="B371:C371"/>
+    <mergeCell ref="B300:D300"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B302:D302"/>
+    <mergeCell ref="B303:D303"/>
+    <mergeCell ref="B309:H309"/>
+    <mergeCell ref="B312:H312"/>
+    <mergeCell ref="B310:H311"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B145:I147"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="B108:I109"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I81:K81"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B119:I120"/>
+    <mergeCell ref="B114:I114"/>
+    <mergeCell ref="B125:I126"/>
+    <mergeCell ref="D129:I130"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="I85:K85"/>
+    <mergeCell ref="G85:H85"/>
     <mergeCell ref="B100:I101"/>
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="B105:C105"/>
@@ -8955,54 +8995,14 @@
     <mergeCell ref="B153:C153"/>
     <mergeCell ref="B159:C159"/>
     <mergeCell ref="B154:C154"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:K84"/>
-    <mergeCell ref="I83:K83"/>
-    <mergeCell ref="I85:K85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B119:I120"/>
-    <mergeCell ref="B114:I114"/>
-    <mergeCell ref="B125:I126"/>
-    <mergeCell ref="D129:I130"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B145:I147"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="B108:I109"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I81:K81"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="A34:I35"/>
-    <mergeCell ref="B299:D299"/>
-    <mergeCell ref="B370:C370"/>
-    <mergeCell ref="B371:C371"/>
-    <mergeCell ref="B300:D300"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B302:D302"/>
-    <mergeCell ref="B303:D303"/>
-    <mergeCell ref="B309:H309"/>
-    <mergeCell ref="B312:H312"/>
-    <mergeCell ref="B310:H311"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B180:I181"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="D79:D85">
@@ -9064,74 +9064,74 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="157" t="s">
+      <c r="A50" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="157"/>
-      <c r="C50" s="157"/>
-      <c r="D50" s="157"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="157"/>
-      <c r="K50" s="157"/>
-      <c r="L50" s="157"/>
-      <c r="M50" s="157"/>
-      <c r="N50" s="157"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="176"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="176"/>
+      <c r="J50" s="176"/>
+      <c r="K50" s="176"/>
+      <c r="L50" s="176"/>
+      <c r="M50" s="176"/>
+      <c r="N50" s="176"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="157" t="s">
+      <c r="A51" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="157"/>
-      <c r="C51" s="157"/>
-      <c r="D51" s="157"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="157"/>
-      <c r="K51" s="157"/>
-      <c r="L51" s="157"/>
-      <c r="M51" s="157"/>
-      <c r="N51" s="157"/>
+      <c r="B51" s="176"/>
+      <c r="C51" s="176"/>
+      <c r="D51" s="176"/>
+      <c r="E51" s="176"/>
+      <c r="F51" s="176"/>
+      <c r="G51" s="176"/>
+      <c r="H51" s="176"/>
+      <c r="I51" s="176"/>
+      <c r="J51" s="176"/>
+      <c r="K51" s="176"/>
+      <c r="L51" s="176"/>
+      <c r="M51" s="176"/>
+      <c r="N51" s="176"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="158" t="s">
+      <c r="A52" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="158"/>
-      <c r="C52" s="158"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="158"/>
-      <c r="F52" s="158"/>
-      <c r="G52" s="158"/>
-      <c r="H52" s="158"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="158"/>
-      <c r="K52" s="158"/>
-      <c r="L52" s="158"/>
-      <c r="M52" s="158"/>
-      <c r="N52" s="158"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="164"/>
+      <c r="M52" s="164"/>
+      <c r="N52" s="164"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="158"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="158"/>
-      <c r="F53" s="158"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="158"/>
-      <c r="K53" s="158"/>
-      <c r="L53" s="158"/>
-      <c r="M53" s="158"/>
-      <c r="N53" s="158"/>
+      <c r="A53" s="164"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="164"/>
+      <c r="L53" s="164"/>
+      <c r="M53" s="164"/>
+      <c r="N53" s="164"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -9167,34 +9167,34 @@
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B105" s="173" t="s">
+      <c r="B105" s="177" t="s">
         <v>338</v>
       </c>
-      <c r="C105" s="173"/>
-      <c r="D105" s="173" t="s">
+      <c r="C105" s="177"/>
+      <c r="D105" s="177" t="s">
         <v>339</v>
       </c>
-      <c r="E105" s="173"/>
-      <c r="F105" s="173" t="s">
+      <c r="E105" s="177"/>
+      <c r="F105" s="177" t="s">
         <v>340</v>
       </c>
-      <c r="G105" s="173"/>
-      <c r="H105" s="173" t="s">
+      <c r="G105" s="177"/>
+      <c r="H105" s="177" t="s">
         <v>341</v>
       </c>
-      <c r="I105" s="173"/>
-      <c r="J105" s="173" t="s">
+      <c r="I105" s="177"/>
+      <c r="J105" s="177" t="s">
         <v>342</v>
       </c>
-      <c r="K105" s="173"/>
-      <c r="L105" s="173" t="s">
+      <c r="K105" s="177"/>
+      <c r="L105" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="M105" s="173"/>
-      <c r="N105" s="173" t="s">
+      <c r="M105" s="177"/>
+      <c r="N105" s="177" t="s">
         <v>343</v>
       </c>
-      <c r="O105" s="173"/>
+      <c r="O105" s="177"/>
       <c r="P105" s="4" t="s">
         <v>75</v>
       </c>
@@ -9436,19 +9436,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="178" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
     </row>
     <row r="2" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="183" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -9472,28 +9472,28 @@
       <c r="H3" s="117" t="s">
         <v>320</v>
       </c>
-      <c r="I3" s="181" t="s">
+      <c r="I3" s="185" t="s">
         <v>333</v>
       </c>
-      <c r="J3" s="181" t="s">
+      <c r="J3" s="185" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="180"/>
-      <c r="B4" s="175" t="s">
+      <c r="A4" s="184"/>
+      <c r="B4" s="179" t="s">
         <v>324</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177" t="s">
+      <c r="C4" s="179"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="181" t="s">
         <v>325</v>
       </c>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
     </row>
     <row r="5" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="109">
@@ -9982,16 +9982,16 @@
       <c r="H22" s="122"/>
       <c r="I22" s="127"/>
       <c r="J22" s="130"/>
-      <c r="K22" s="178" t="s">
+      <c r="K22" s="182" t="s">
         <v>332</v>
       </c>
-      <c r="L22" s="178"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="178"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="178"/>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="178"/>
+      <c r="L22" s="182"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="182"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="182"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="111">
@@ -10012,14 +10012,14 @@
       <c r="H23" s="122"/>
       <c r="I23" s="127"/>
       <c r="J23" s="130"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178"/>
-      <c r="O23" s="178"/>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="178"/>
-      <c r="R23" s="178"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="182"/>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="182"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="111">
@@ -10040,14 +10040,14 @@
       <c r="H24" s="122"/>
       <c r="I24" s="127"/>
       <c r="J24" s="130"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="178"/>
-      <c r="N24" s="178"/>
-      <c r="O24" s="178"/>
-      <c r="P24" s="178"/>
-      <c r="Q24" s="178"/>
-      <c r="R24" s="178"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="182"/>
+      <c r="O24" s="182"/>
+      <c r="P24" s="182"/>
+      <c r="Q24" s="182"/>
+      <c r="R24" s="182"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="111">
@@ -10068,14 +10068,14 @@
       <c r="H25" s="122"/>
       <c r="I25" s="127"/>
       <c r="J25" s="130"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="178"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="178"/>
-      <c r="Q25" s="178"/>
-      <c r="R25" s="178"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="182"/>
+      <c r="R25" s="182"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="111">
@@ -10096,14 +10096,14 @@
       <c r="H26" s="122"/>
       <c r="I26" s="127"/>
       <c r="J26" s="130"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="178"/>
-      <c r="N26" s="178"/>
-      <c r="O26" s="178"/>
-      <c r="P26" s="178"/>
-      <c r="Q26" s="178"/>
-      <c r="R26" s="178"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="182"/>
+      <c r="O26" s="182"/>
+      <c r="P26" s="182"/>
+      <c r="Q26" s="182"/>
+      <c r="R26" s="182"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="111">
@@ -10124,14 +10124,14 @@
       <c r="H27" s="122"/>
       <c r="I27" s="127"/>
       <c r="J27" s="130"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="178"/>
-      <c r="N27" s="178"/>
-      <c r="O27" s="178"/>
-      <c r="P27" s="178"/>
-      <c r="Q27" s="178"/>
-      <c r="R27" s="178"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="182"/>
+      <c r="P27" s="182"/>
+      <c r="Q27" s="182"/>
+      <c r="R27" s="182"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="111">
@@ -10152,14 +10152,14 @@
       <c r="H28" s="122"/>
       <c r="I28" s="127"/>
       <c r="J28" s="130"/>
-      <c r="K28" s="178"/>
-      <c r="L28" s="178"/>
-      <c r="M28" s="178"/>
-      <c r="N28" s="178"/>
-      <c r="O28" s="178"/>
-      <c r="P28" s="178"/>
-      <c r="Q28" s="178"/>
-      <c r="R28" s="178"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="182"/>
+      <c r="O28" s="182"/>
+      <c r="P28" s="182"/>
+      <c r="Q28" s="182"/>
+      <c r="R28" s="182"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="111">
@@ -10180,14 +10180,14 @@
       <c r="H29" s="122"/>
       <c r="I29" s="127"/>
       <c r="J29" s="130"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="178"/>
-      <c r="M29" s="178"/>
-      <c r="N29" s="178"/>
-      <c r="O29" s="178"/>
-      <c r="P29" s="178"/>
-      <c r="Q29" s="178"/>
-      <c r="R29" s="178"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="182"/>
+      <c r="P29" s="182"/>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="182"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="111">

--- a/Lines Plan - Oil Tanker 20704 DWT - Maxsurf.xlsx
+++ b/Lines Plan - Oil Tanker 20704 DWT - Maxsurf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11gabillah\12gabillah\Rangkuman Engineering\Projek Ship Oil Tanker 20704 DWT - (main branch)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1802997C-22BF-4163-89A4-F22FBC6C45A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2404AB77-ABB4-4FF8-AE63-6563D902CCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3047,14 +3047,59 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3067,51 +3112,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4774,8 +4774,8 @@
   </sheetPr>
   <dimension ref="A1:L434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="97" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4801,21 +4801,21 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="165" t="s">
+      <c r="H1" s="163" t="s">
         <v>351</v>
       </c>
-      <c r="I1" s="166"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="165" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4826,13 +4826,13 @@
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
       <c r="H3" s="5" t="s">
         <v>1</v>
       </c>
@@ -5072,28 +5072,28 @@
       <c r="A33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="171" t="s">
+      <c r="A34" s="155" t="s">
         <v>334</v>
       </c>
-      <c r="B34" s="171"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="171"/>
-      <c r="B35" s="171"/>
-      <c r="C35" s="171"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
+      <c r="A35" s="155"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
@@ -5399,12 +5399,12 @@
       <c r="B63" s="20"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="168" t="s">
+      <c r="B64" s="166" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="168"/>
+      <c r="B65" s="166"/>
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
@@ -5526,15 +5526,15 @@
       <c r="F78" s="134" t="s">
         <v>199</v>
       </c>
-      <c r="G78" s="169" t="s">
+      <c r="G78" s="167" t="s">
         <v>84</v>
       </c>
-      <c r="H78" s="169"/>
-      <c r="I78" s="169" t="s">
+      <c r="H78" s="167"/>
+      <c r="I78" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="J78" s="169"/>
-      <c r="K78" s="169"/>
+      <c r="J78" s="167"/>
+      <c r="K78" s="167"/>
     </row>
     <row r="79" spans="1:11" s="17" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
@@ -5559,16 +5559,16 @@
         <f>_xlfn.XLOOKUP($C$76, ShipType_ref, LpB_max_ref)</f>
         <v>6.5</v>
       </c>
-      <c r="G79" s="162" t="str">
+      <c r="G79" s="168" t="str">
         <f>E79&amp;" &lt; " &amp;B79&amp; " &lt; "&amp;F79</f>
         <v>5 &lt; L/B &lt; 6.5</v>
       </c>
-      <c r="H79" s="162"/>
-      <c r="I79" s="157" t="s">
+      <c r="H79" s="168"/>
+      <c r="I79" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="J79" s="157"/>
-      <c r="K79" s="157"/>
+      <c r="J79" s="169"/>
+      <c r="K79" s="169"/>
     </row>
     <row r="80" spans="1:11" s="17" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
@@ -5593,16 +5593,16 @@
         <f>_xlfn.XLOOKUP($C$76, ShipType_ref, BpT_max_ref)</f>
         <v>2.9</v>
       </c>
-      <c r="G80" s="162" t="str">
+      <c r="G80" s="168" t="str">
         <f t="shared" ref="G80:G83" si="0">E80&amp;" &lt; " &amp;B80&amp; " &lt; "&amp;F80</f>
         <v>2.2 &lt; B/T &lt; 2.9</v>
       </c>
-      <c r="H80" s="162"/>
-      <c r="I80" s="157" t="s">
+      <c r="H80" s="168"/>
+      <c r="I80" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="J80" s="157"/>
-      <c r="K80" s="157"/>
+      <c r="J80" s="169"/>
+      <c r="K80" s="169"/>
     </row>
     <row r="81" spans="1:11" s="17" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
@@ -5625,16 +5625,16 @@
       <c r="F81" s="151">
         <v>30</v>
       </c>
-      <c r="G81" s="162" t="str">
+      <c r="G81" s="168" t="str">
         <f t="shared" si="0"/>
         <v>10 &lt; L/T &lt; 30</v>
       </c>
-      <c r="H81" s="162"/>
-      <c r="I81" s="157" t="s">
+      <c r="H81" s="168"/>
+      <c r="I81" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="J81" s="157"/>
-      <c r="K81" s="157"/>
+      <c r="J81" s="169"/>
+      <c r="K81" s="169"/>
     </row>
     <row r="82" spans="1:11" s="17" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
@@ -5657,16 +5657,16 @@
       <c r="F82" s="151">
         <v>20</v>
       </c>
-      <c r="G82" s="162" t="str">
+      <c r="G82" s="168" t="str">
         <f t="shared" si="0"/>
         <v>10 &lt; L/H &lt; 20</v>
       </c>
-      <c r="H82" s="162"/>
-      <c r="I82" s="157" t="s">
+      <c r="H82" s="168"/>
+      <c r="I82" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="J82" s="157"/>
-      <c r="K82" s="157"/>
+      <c r="J82" s="169"/>
+      <c r="K82" s="169"/>
     </row>
     <row r="83" spans="1:11" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
@@ -5689,16 +5689,16 @@
       <c r="F83" s="151">
         <v>2</v>
       </c>
-      <c r="G83" s="162" t="str">
+      <c r="G83" s="168" t="str">
         <f t="shared" si="0"/>
         <v>1.9 &lt; B/H &lt; 2</v>
       </c>
-      <c r="H83" s="162"/>
-      <c r="I83" s="157" t="s">
+      <c r="H83" s="168"/>
+      <c r="I83" s="169" t="s">
         <v>91</v>
       </c>
-      <c r="J83" s="157"/>
-      <c r="K83" s="157"/>
+      <c r="J83" s="169"/>
+      <c r="K83" s="169"/>
     </row>
     <row r="84" spans="1:11" s="17" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="36">
@@ -5723,16 +5723,16 @@
         <f>1E+99</f>
         <v>9.9999999999999997E+98</v>
       </c>
-      <c r="G84" s="163" t="str">
+      <c r="G84" s="172" t="str">
         <f>"T/H &gt;= " &amp; E84</f>
         <v>T/H &gt;= 0.78</v>
       </c>
-      <c r="H84" s="163"/>
-      <c r="I84" s="157" t="s">
+      <c r="H84" s="172"/>
+      <c r="I84" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="J84" s="157"/>
-      <c r="K84" s="157"/>
+      <c r="J84" s="169"/>
+      <c r="K84" s="169"/>
     </row>
     <row r="85" spans="1:11" s="17" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A85" s="36">
@@ -5757,15 +5757,15 @@
         <f>1E+99</f>
         <v>9.9999999999999997E+98</v>
       </c>
-      <c r="G85" s="162" t="s">
+      <c r="G85" s="168" t="s">
         <v>349</v>
       </c>
-      <c r="H85" s="162"/>
-      <c r="I85" s="156" t="s">
+      <c r="H85" s="168"/>
+      <c r="I85" s="170" t="s">
         <v>93</v>
       </c>
-      <c r="J85" s="156"/>
-      <c r="K85" s="156"/>
+      <c r="J85" s="170"/>
+      <c r="K85" s="170"/>
     </row>
     <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="34"/>
@@ -5889,10 +5889,10 @@
     </row>
     <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="34"/>
-      <c r="B98" s="159" t="s">
+      <c r="B98" s="174" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="159"/>
+      <c r="C98" s="174"/>
       <c r="D98" s="31" t="s">
         <v>105</v>
       </c>
@@ -5913,27 +5913,27 @@
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="34"/>
-      <c r="B100" s="158" t="s">
+      <c r="B100" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="C100" s="158"/>
-      <c r="D100" s="158"/>
-      <c r="E100" s="158"/>
-      <c r="F100" s="158"/>
-      <c r="G100" s="158"/>
-      <c r="H100" s="158"/>
-      <c r="I100" s="158"/>
+      <c r="C100" s="173"/>
+      <c r="D100" s="173"/>
+      <c r="E100" s="173"/>
+      <c r="F100" s="173"/>
+      <c r="G100" s="173"/>
+      <c r="H100" s="173"/>
+      <c r="I100" s="173"/>
     </row>
     <row r="101" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="34"/>
-      <c r="B101" s="158"/>
-      <c r="C101" s="158"/>
-      <c r="D101" s="158"/>
-      <c r="E101" s="158"/>
-      <c r="F101" s="158"/>
-      <c r="G101" s="158"/>
-      <c r="H101" s="158"/>
-      <c r="I101" s="158"/>
+      <c r="B101" s="173"/>
+      <c r="C101" s="173"/>
+      <c r="D101" s="173"/>
+      <c r="E101" s="173"/>
+      <c r="F101" s="173"/>
+      <c r="G101" s="173"/>
+      <c r="H101" s="173"/>
+      <c r="I101" s="173"/>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="34"/>
@@ -5973,10 +5973,10 @@
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="34"/>
-      <c r="B105" s="160" t="s">
+      <c r="B105" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="160"/>
+      <c r="C105" s="175"/>
       <c r="D105" s="77">
         <f>((-4.22)+(27.8*(SQRT(Fn)))-(39.1*Fn)+(46.6*(Fn^3)))</f>
         <v>0.70197678237994154</v>
@@ -6007,27 +6007,27 @@
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="34"/>
-      <c r="B108" s="164" t="s">
+      <c r="B108" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="164"/>
-      <c r="D108" s="164"/>
-      <c r="E108" s="164"/>
-      <c r="F108" s="164"/>
-      <c r="G108" s="164"/>
-      <c r="H108" s="164"/>
-      <c r="I108" s="164"/>
+      <c r="C108" s="161"/>
+      <c r="D108" s="161"/>
+      <c r="E108" s="161"/>
+      <c r="F108" s="161"/>
+      <c r="G108" s="161"/>
+      <c r="H108" s="161"/>
+      <c r="I108" s="161"/>
     </row>
     <row r="109" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="34"/>
-      <c r="B109" s="164"/>
-      <c r="C109" s="164"/>
-      <c r="D109" s="164"/>
-      <c r="E109" s="164"/>
-      <c r="F109" s="164"/>
-      <c r="G109" s="164"/>
-      <c r="H109" s="164"/>
-      <c r="I109" s="164"/>
+      <c r="B109" s="161"/>
+      <c r="C109" s="161"/>
+      <c r="D109" s="161"/>
+      <c r="E109" s="161"/>
+      <c r="F109" s="161"/>
+      <c r="G109" s="161"/>
+      <c r="H109" s="161"/>
+      <c r="I109" s="161"/>
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="34"/>
@@ -6071,16 +6071,16 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="164" t="s">
+      <c r="B114" s="161" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="164"/>
-      <c r="D114" s="164"/>
-      <c r="E114" s="164"/>
-      <c r="F114" s="164"/>
-      <c r="G114" s="164"/>
-      <c r="H114" s="164"/>
-      <c r="I114" s="164"/>
+      <c r="C114" s="161"/>
+      <c r="D114" s="161"/>
+      <c r="E114" s="161"/>
+      <c r="F114" s="161"/>
+      <c r="G114" s="161"/>
+      <c r="H114" s="161"/>
+      <c r="I114" s="161"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B115" s="38" t="s">
@@ -6127,27 +6127,27 @@
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="34"/>
-      <c r="B119" s="164" t="s">
+      <c r="B119" s="161" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="164"/>
-      <c r="D119" s="164"/>
-      <c r="E119" s="164"/>
-      <c r="F119" s="164"/>
-      <c r="G119" s="164"/>
-      <c r="H119" s="164"/>
-      <c r="I119" s="164"/>
+      <c r="C119" s="161"/>
+      <c r="D119" s="161"/>
+      <c r="E119" s="161"/>
+      <c r="F119" s="161"/>
+      <c r="G119" s="161"/>
+      <c r="H119" s="161"/>
+      <c r="I119" s="161"/>
     </row>
     <row r="120" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="34"/>
-      <c r="B120" s="164"/>
-      <c r="C120" s="164"/>
-      <c r="D120" s="164"/>
-      <c r="E120" s="164"/>
-      <c r="F120" s="164"/>
-      <c r="G120" s="164"/>
-      <c r="H120" s="164"/>
-      <c r="I120" s="164"/>
+      <c r="B120" s="161"/>
+      <c r="C120" s="161"/>
+      <c r="D120" s="161"/>
+      <c r="E120" s="161"/>
+      <c r="F120" s="161"/>
+      <c r="G120" s="161"/>
+      <c r="H120" s="161"/>
+      <c r="I120" s="161"/>
     </row>
     <row r="121" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="34"/>
@@ -6196,27 +6196,27 @@
     </row>
     <row r="125" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34"/>
-      <c r="B125" s="164" t="s">
+      <c r="B125" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="C125" s="164"/>
-      <c r="D125" s="164"/>
-      <c r="E125" s="164"/>
-      <c r="F125" s="164"/>
-      <c r="G125" s="164"/>
-      <c r="H125" s="164"/>
-      <c r="I125" s="164"/>
+      <c r="C125" s="161"/>
+      <c r="D125" s="161"/>
+      <c r="E125" s="161"/>
+      <c r="F125" s="161"/>
+      <c r="G125" s="161"/>
+      <c r="H125" s="161"/>
+      <c r="I125" s="161"/>
     </row>
     <row r="126" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="34"/>
-      <c r="B126" s="164"/>
-      <c r="C126" s="164"/>
-      <c r="D126" s="164"/>
-      <c r="E126" s="164"/>
-      <c r="F126" s="164"/>
-      <c r="G126" s="164"/>
-      <c r="H126" s="164"/>
-      <c r="I126" s="164"/>
+      <c r="B126" s="161"/>
+      <c r="C126" s="161"/>
+      <c r="D126" s="161"/>
+      <c r="E126" s="161"/>
+      <c r="F126" s="161"/>
+      <c r="G126" s="161"/>
+      <c r="H126" s="161"/>
+      <c r="I126" s="161"/>
     </row>
     <row r="127" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="34"/>
@@ -6257,23 +6257,23 @@
         <f>C128% * LPP_m</f>
         <v>0.43342054367951438</v>
       </c>
-      <c r="D129" s="155" t="s">
+      <c r="D129" s="171" t="s">
         <v>126</v>
       </c>
-      <c r="E129" s="155"/>
-      <c r="F129" s="155"/>
-      <c r="G129" s="155"/>
-      <c r="H129" s="155"/>
-      <c r="I129" s="155"/>
+      <c r="E129" s="171"/>
+      <c r="F129" s="171"/>
+      <c r="G129" s="171"/>
+      <c r="H129" s="171"/>
+      <c r="I129" s="171"/>
     </row>
     <row r="130" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="14"/>
-      <c r="D130" s="155"/>
-      <c r="E130" s="155"/>
-      <c r="F130" s="155"/>
-      <c r="G130" s="155"/>
-      <c r="H130" s="155"/>
-      <c r="I130" s="155"/>
+      <c r="D130" s="171"/>
+      <c r="E130" s="171"/>
+      <c r="F130" s="171"/>
+      <c r="G130" s="171"/>
+      <c r="H130" s="171"/>
+      <c r="I130" s="171"/>
     </row>
     <row r="131" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="82" t="s">
@@ -6382,38 +6382,38 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="164" t="s">
+      <c r="B145" s="161" t="s">
         <v>136</v>
       </c>
-      <c r="C145" s="164"/>
-      <c r="D145" s="164"/>
-      <c r="E145" s="164"/>
-      <c r="F145" s="164"/>
-      <c r="G145" s="164"/>
-      <c r="H145" s="164"/>
-      <c r="I145" s="164"/>
+      <c r="C145" s="161"/>
+      <c r="D145" s="161"/>
+      <c r="E145" s="161"/>
+      <c r="F145" s="161"/>
+      <c r="G145" s="161"/>
+      <c r="H145" s="161"/>
+      <c r="I145" s="161"/>
       <c r="J145" s="17"/>
     </row>
     <row r="146" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="164"/>
-      <c r="C146" s="164"/>
-      <c r="D146" s="164"/>
-      <c r="E146" s="164"/>
-      <c r="F146" s="164"/>
-      <c r="G146" s="164"/>
-      <c r="H146" s="164"/>
-      <c r="I146" s="164"/>
+      <c r="B146" s="161"/>
+      <c r="C146" s="161"/>
+      <c r="D146" s="161"/>
+      <c r="E146" s="161"/>
+      <c r="F146" s="161"/>
+      <c r="G146" s="161"/>
+      <c r="H146" s="161"/>
+      <c r="I146" s="161"/>
       <c r="J146" s="17"/>
     </row>
     <row r="147" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="164"/>
-      <c r="C147" s="164"/>
-      <c r="D147" s="164"/>
-      <c r="E147" s="164"/>
-      <c r="F147" s="164"/>
-      <c r="G147" s="164"/>
-      <c r="H147" s="164"/>
-      <c r="I147" s="164"/>
+      <c r="B147" s="161"/>
+      <c r="C147" s="161"/>
+      <c r="D147" s="161"/>
+      <c r="E147" s="161"/>
+      <c r="F147" s="161"/>
+      <c r="G147" s="161"/>
+      <c r="H147" s="161"/>
+      <c r="I147" s="161"/>
       <c r="J147" s="17"/>
     </row>
     <row r="148" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6459,10 +6459,10 @@
       <c r="C152" s="24"/>
     </row>
     <row r="153" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="156" t="s">
+      <c r="B153" s="170" t="s">
         <v>143</v>
       </c>
-      <c r="C153" s="156"/>
+      <c r="C153" s="170"/>
       <c r="D153" s="48" t="str">
         <f>C39</f>
         <v>MTM Antwerp</v>
@@ -6470,10 +6470,10 @@
       <c r="E153" s="41"/>
     </row>
     <row r="154" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="156" t="s">
+      <c r="B154" s="170" t="s">
         <v>138</v>
       </c>
-      <c r="C154" s="156"/>
+      <c r="C154" s="170"/>
       <c r="D154" s="48" t="str">
         <f>C40</f>
         <v>Oil Tanker</v>
@@ -6481,10 +6481,10 @@
       <c r="E154" s="97"/>
     </row>
     <row r="155" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="156" t="s">
+      <c r="B155" s="170" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="156"/>
+      <c r="C155" s="170"/>
       <c r="D155" s="48">
         <f>C41</f>
         <v>9291456</v>
@@ -6492,10 +6492,10 @@
       <c r="E155" s="97"/>
     </row>
     <row r="156" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="156" t="s">
+      <c r="B156" s="170" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="156"/>
+      <c r="C156" s="170"/>
       <c r="D156" s="48" t="str">
         <f>C42</f>
         <v>NKK</v>
@@ -6503,10 +6503,10 @@
       <c r="E156" s="97"/>
     </row>
     <row r="157" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="161" t="s">
+      <c r="B157" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="C157" s="161"/>
+      <c r="C157" s="176"/>
       <c r="D157" s="152">
         <v>145.53</v>
       </c>
@@ -6515,10 +6515,10 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="157" t="s">
+      <c r="B158" s="169" t="s">
         <v>144</v>
       </c>
-      <c r="C158" s="157"/>
+      <c r="C158" s="169"/>
       <c r="D158" s="139">
         <f>LPP_m</f>
         <v>137</v>
@@ -6528,10 +6528,10 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="157" t="s">
+      <c r="B159" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="C159" s="157"/>
+      <c r="C159" s="169"/>
       <c r="D159" s="139">
         <f>LWL_m</f>
         <v>142.48000000000002</v>
@@ -6541,10 +6541,10 @@
       </c>
     </row>
     <row r="160" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="156" t="s">
+      <c r="B160" s="170" t="s">
         <v>147</v>
       </c>
-      <c r="C160" s="156"/>
+      <c r="C160" s="170"/>
       <c r="D160" s="139">
         <f>H_m</f>
         <v>13.35</v>
@@ -6554,10 +6554,10 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="156" t="s">
+      <c r="B161" s="170" t="s">
         <v>145</v>
       </c>
-      <c r="C161" s="156"/>
+      <c r="C161" s="170"/>
       <c r="D161" s="139">
         <f>B_m</f>
         <v>23.7</v>
@@ -6567,10 +6567,10 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="156" t="s">
+      <c r="B162" s="170" t="s">
         <v>148</v>
       </c>
-      <c r="C162" s="156"/>
+      <c r="C162" s="170"/>
       <c r="D162" s="139">
         <f>T_m</f>
         <v>9.9469999999999992</v>
@@ -6580,10 +6580,10 @@
       </c>
     </row>
     <row r="163" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="156" t="s">
+      <c r="B163" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="C163" s="156"/>
+      <c r="C163" s="170"/>
       <c r="D163" s="139">
         <f>Vs_knot</f>
         <v>16.3</v>
@@ -6593,10 +6593,10 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="156" t="s">
+      <c r="B164" s="170" t="s">
         <v>141</v>
       </c>
-      <c r="C164" s="156"/>
+      <c r="C164" s="170"/>
       <c r="D164" s="139">
         <f>Vs_mps</f>
         <v>8.3847199999999997</v>
@@ -6606,10 +6606,10 @@
       </c>
     </row>
     <row r="165" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="156" t="s">
+      <c r="B165" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="C165" s="156"/>
+      <c r="C165" s="170"/>
       <c r="D165" s="139">
         <f>MassaJenisAirLaut</f>
         <v>1.0249999999999999</v>
@@ -6619,10 +6619,10 @@
       </c>
     </row>
     <row r="166" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="156" t="s">
+      <c r="B166" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="C166" s="156"/>
+      <c r="C166" s="170"/>
       <c r="D166" s="139">
         <f>Cb</f>
         <v>0.70197678237994154</v>
@@ -6630,10 +6630,10 @@
       <c r="E166" s="41"/>
     </row>
     <row r="167" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="156" t="s">
+      <c r="B167" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="C167" s="156"/>
+      <c r="C167" s="170"/>
       <c r="D167" s="139">
         <f>Cm</f>
         <v>0.98566802650229501</v>
@@ -6641,10 +6641,10 @@
       <c r="E167" s="41"/>
     </row>
     <row r="168" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="156" t="s">
+      <c r="B168" s="170" t="s">
         <v>152</v>
       </c>
-      <c r="C168" s="156"/>
+      <c r="C168" s="170"/>
       <c r="D168" s="139">
         <f>Cp</f>
         <v>0.71218378146134076</v>
@@ -6652,10 +6652,10 @@
       <c r="E168" s="41"/>
     </row>
     <row r="169" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="156" t="s">
+      <c r="B169" s="170" t="s">
         <v>151</v>
       </c>
-      <c r="C169" s="156"/>
+      <c r="C169" s="170"/>
       <c r="D169" s="139">
         <f>Cwp</f>
         <v>0.79247805205675315</v>
@@ -6663,10 +6663,10 @@
       <c r="E169" s="41"/>
     </row>
     <row r="170" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="157" t="s">
+      <c r="B170" s="169" t="s">
         <v>153</v>
       </c>
-      <c r="C170" s="157"/>
+      <c r="C170" s="169"/>
       <c r="D170" s="139">
         <f>C128</f>
         <v>0.3163653603500105</v>
@@ -6676,10 +6676,10 @@
       </c>
     </row>
     <row r="171" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="156" t="s">
+      <c r="B171" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="C171" s="156"/>
+      <c r="C171" s="170"/>
       <c r="D171" s="139">
         <f>Disp_ton</f>
         <v>24168.015123868292</v>
@@ -6689,10 +6689,10 @@
       </c>
     </row>
     <row r="172" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="156" t="s">
+      <c r="B172" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="C172" s="156"/>
+      <c r="C172" s="170"/>
       <c r="D172" s="139">
         <f>Vdisp_m3</f>
         <v>23578.55134035931</v>
@@ -6702,10 +6702,10 @@
       </c>
     </row>
     <row r="173" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="156" t="s">
+      <c r="B173" s="170" t="s">
         <v>156</v>
       </c>
-      <c r="C173" s="156"/>
+      <c r="C173" s="170"/>
       <c r="D173" s="139">
         <f>Fn</f>
         <v>0.22427305935938685</v>
@@ -6754,27 +6754,27 @@
       <c r="B179" s="23"/>
     </row>
     <row r="180" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="155" t="s">
+      <c r="B180" s="171" t="s">
         <v>264</v>
       </c>
-      <c r="C180" s="155"/>
-      <c r="D180" s="155"/>
-      <c r="E180" s="155"/>
-      <c r="F180" s="155"/>
-      <c r="G180" s="155"/>
-      <c r="H180" s="155"/>
-      <c r="I180" s="155"/>
+      <c r="C180" s="171"/>
+      <c r="D180" s="171"/>
+      <c r="E180" s="171"/>
+      <c r="F180" s="171"/>
+      <c r="G180" s="171"/>
+      <c r="H180" s="171"/>
+      <c r="I180" s="171"/>
     </row>
     <row r="181" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
-      <c r="B181" s="155"/>
-      <c r="C181" s="155"/>
-      <c r="D181" s="155"/>
-      <c r="E181" s="155"/>
-      <c r="F181" s="155"/>
-      <c r="G181" s="155"/>
-      <c r="H181" s="155"/>
-      <c r="I181" s="155"/>
+      <c r="B181" s="171"/>
+      <c r="C181" s="171"/>
+      <c r="D181" s="171"/>
+      <c r="E181" s="171"/>
+      <c r="F181" s="171"/>
+      <c r="G181" s="171"/>
+      <c r="H181" s="171"/>
+      <c r="I181" s="171"/>
     </row>
     <row r="182" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="14"/>
@@ -6881,10 +6881,10 @@
       <c r="J200" s="17"/>
     </row>
     <row r="201" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="170" t="s">
+      <c r="B201" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="C201" s="170"/>
+      <c r="C201" s="162"/>
       <c r="D201" s="142">
         <f>B_m</f>
         <v>23.7</v>
@@ -6899,10 +6899,10 @@
       <c r="J201" s="17"/>
     </row>
     <row r="202" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="170" t="s">
+      <c r="B202" s="162" t="s">
         <v>170</v>
       </c>
-      <c r="C202" s="170"/>
+      <c r="C202" s="162"/>
       <c r="D202" s="142">
         <f>H_m</f>
         <v>13.35</v>
@@ -6914,10 +6914,10 @@
     </row>
     <row r="203" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
-      <c r="B203" s="170" t="s">
+      <c r="B203" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="C203" s="170"/>
+      <c r="C203" s="162"/>
       <c r="D203" s="142">
         <f>T_m</f>
         <v>9.9469999999999992</v>
@@ -6927,10 +6927,10 @@
       </c>
     </row>
     <row r="204" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B204" s="170" t="s">
+      <c r="B204" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="C204" s="170"/>
+      <c r="C204" s="162"/>
       <c r="D204" s="142">
         <f>Am_m2</f>
         <v>232.36522467295435</v>
@@ -7052,10 +7052,10 @@
       <c r="C225" s="14"/>
     </row>
     <row r="226" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="170" t="s">
+      <c r="B226" s="162" t="s">
         <v>207</v>
       </c>
-      <c r="C226" s="170"/>
+      <c r="C226" s="162"/>
       <c r="D226" s="59">
         <f>LPP_m</f>
         <v>137</v>
@@ -7065,10 +7065,10 @@
       </c>
     </row>
     <row r="227" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="170" t="s">
+      <c r="B227" s="162" t="s">
         <v>327</v>
       </c>
-      <c r="C227" s="170"/>
+      <c r="C227" s="162"/>
       <c r="D227" s="59">
         <f>LWL_m</f>
         <v>142.48000000000002</v>
@@ -7082,10 +7082,10 @@
       </c>
     </row>
     <row r="228" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="170" t="s">
+      <c r="B228" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="C228" s="170"/>
+      <c r="C228" s="162"/>
       <c r="D228" s="59">
         <f>B_m</f>
         <v>23.7</v>
@@ -7099,10 +7099,10 @@
       </c>
     </row>
     <row r="229" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="170" t="s">
+      <c r="B229" s="162" t="s">
         <v>170</v>
       </c>
-      <c r="C229" s="170"/>
+      <c r="C229" s="162"/>
       <c r="D229" s="59">
         <f>H_m</f>
         <v>13.35</v>
@@ -7112,10 +7112,10 @@
       </c>
     </row>
     <row r="230" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="170" t="s">
+      <c r="B230" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="C230" s="170"/>
+      <c r="C230" s="162"/>
       <c r="D230" s="59">
         <f>T_m</f>
         <v>9.9469999999999992</v>
@@ -7125,10 +7125,10 @@
       </c>
     </row>
     <row r="231" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="170" t="s">
+      <c r="B231" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="C231" s="170"/>
+      <c r="C231" s="162"/>
       <c r="D231" s="59">
         <f>LWL_m</f>
         <v>142.48000000000002</v>
@@ -7600,11 +7600,11 @@
       <c r="E298" s="58"/>
     </row>
     <row r="299" spans="2:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B299" s="172" t="s">
+      <c r="B299" s="156" t="s">
         <v>208</v>
       </c>
-      <c r="C299" s="172"/>
-      <c r="D299" s="172"/>
+      <c r="C299" s="156"/>
+      <c r="D299" s="156"/>
       <c r="E299" s="84" t="s">
         <v>262</v>
       </c>
@@ -7619,11 +7619,11 @@
       </c>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B300" s="175" t="s">
+      <c r="B300" s="159" t="s">
         <v>259</v>
       </c>
-      <c r="C300" s="175"/>
-      <c r="D300" s="175"/>
+      <c r="C300" s="159"/>
+      <c r="D300" s="159"/>
       <c r="E300" s="66">
         <f>0.35*C282</f>
         <v>3.4814499999999997</v>
@@ -7641,11 +7641,11 @@
       </c>
     </row>
     <row r="301" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="175" t="s">
+      <c r="B301" s="159" t="s">
         <v>210</v>
       </c>
-      <c r="C301" s="175"/>
-      <c r="D301" s="175"/>
+      <c r="C301" s="159"/>
+      <c r="D301" s="159"/>
       <c r="E301" s="67">
         <v>1.8</v>
       </c>
@@ -7661,11 +7661,11 @@
       </c>
     </row>
     <row r="302" spans="2:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="175" t="s">
+      <c r="B302" s="159" t="s">
         <v>239</v>
       </c>
-      <c r="C302" s="175"/>
-      <c r="D302" s="175"/>
+      <c r="C302" s="159"/>
+      <c r="D302" s="159"/>
       <c r="E302" s="67">
         <f>18%*D226</f>
         <v>24.66</v>
@@ -7682,11 +7682,11 @@
       </c>
     </row>
     <row r="303" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="175" t="s">
+      <c r="B303" s="159" t="s">
         <v>272</v>
       </c>
-      <c r="C303" s="175"/>
-      <c r="D303" s="175"/>
+      <c r="C303" s="159"/>
+      <c r="D303" s="159"/>
       <c r="E303" s="67">
         <f>7.5%*D226</f>
         <v>10.275</v>
@@ -7735,49 +7735,49 @@
     </row>
     <row r="309" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="33"/>
-      <c r="B309" s="176" t="s">
+      <c r="B309" s="160" t="s">
         <v>251</v>
       </c>
-      <c r="C309" s="176"/>
-      <c r="D309" s="176"/>
-      <c r="E309" s="176"/>
-      <c r="F309" s="176"/>
-      <c r="G309" s="176"/>
-      <c r="H309" s="176"/>
+      <c r="C309" s="160"/>
+      <c r="D309" s="160"/>
+      <c r="E309" s="160"/>
+      <c r="F309" s="160"/>
+      <c r="G309" s="160"/>
+      <c r="H309" s="160"/>
     </row>
     <row r="310" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="33"/>
-      <c r="B310" s="164" t="s">
+      <c r="B310" s="161" t="s">
         <v>328</v>
       </c>
-      <c r="C310" s="164"/>
-      <c r="D310" s="164"/>
-      <c r="E310" s="164"/>
-      <c r="F310" s="164"/>
-      <c r="G310" s="164"/>
-      <c r="H310" s="164"/>
+      <c r="C310" s="161"/>
+      <c r="D310" s="161"/>
+      <c r="E310" s="161"/>
+      <c r="F310" s="161"/>
+      <c r="G310" s="161"/>
+      <c r="H310" s="161"/>
     </row>
     <row r="311" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="33"/>
-      <c r="B311" s="164"/>
-      <c r="C311" s="164"/>
-      <c r="D311" s="164"/>
-      <c r="E311" s="164"/>
-      <c r="F311" s="164"/>
-      <c r="G311" s="164"/>
-      <c r="H311" s="164"/>
+      <c r="B311" s="161"/>
+      <c r="C311" s="161"/>
+      <c r="D311" s="161"/>
+      <c r="E311" s="161"/>
+      <c r="F311" s="161"/>
+      <c r="G311" s="161"/>
+      <c r="H311" s="161"/>
     </row>
     <row r="312" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="33"/>
-      <c r="B312" s="176" t="s">
+      <c r="B312" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="C312" s="176"/>
-      <c r="D312" s="176"/>
-      <c r="E312" s="176"/>
-      <c r="F312" s="176"/>
-      <c r="G312" s="176"/>
-      <c r="H312" s="176"/>
+      <c r="C312" s="160"/>
+      <c r="D312" s="160"/>
+      <c r="E312" s="160"/>
+      <c r="F312" s="160"/>
+      <c r="G312" s="160"/>
+      <c r="H312" s="160"/>
     </row>
     <row r="313" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="33"/>
@@ -8189,10 +8189,10 @@
       <c r="E369" s="58"/>
     </row>
     <row r="370" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B370" s="173" t="s">
+      <c r="B370" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="C370" s="173"/>
+      <c r="C370" s="157"/>
       <c r="D370" s="68">
         <v>1173.2671</v>
       </c>
@@ -8201,10 +8201,10 @@
       </c>
     </row>
     <row r="371" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B371" s="174" t="s">
+      <c r="B371" s="158" t="s">
         <v>241</v>
       </c>
-      <c r="C371" s="174"/>
+      <c r="C371" s="158"/>
       <c r="D371" s="75">
         <f>D370*2</f>
         <v>2346.5342000000001</v>
@@ -8931,6 +8931,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B180:I181"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B100:I101"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="I85:K85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B119:I120"/>
+    <mergeCell ref="B114:I114"/>
+    <mergeCell ref="B125:I126"/>
+    <mergeCell ref="D129:I130"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B145:I147"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="B108:I109"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I81:K81"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
     <mergeCell ref="A34:I35"/>
     <mergeCell ref="B299:D299"/>
     <mergeCell ref="B370:C370"/>
@@ -8947,62 +9003,6 @@
     <mergeCell ref="B229:C229"/>
     <mergeCell ref="B230:C230"/>
     <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B145:I147"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I78:K78"/>
-    <mergeCell ref="I79:K79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:K80"/>
-    <mergeCell ref="B108:I109"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I81:K81"/>
-    <mergeCell ref="I82:K82"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B119:I120"/>
-    <mergeCell ref="B114:I114"/>
-    <mergeCell ref="B125:I126"/>
-    <mergeCell ref="D129:I130"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:K84"/>
-    <mergeCell ref="I83:K83"/>
-    <mergeCell ref="I85:K85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="B100:I101"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B180:I181"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="D79:D85">
@@ -9064,74 +9064,74 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="176" t="s">
+      <c r="A50" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="176"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
-      <c r="E50" s="176"/>
-      <c r="F50" s="176"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="176"/>
-      <c r="K50" s="176"/>
-      <c r="L50" s="176"/>
-      <c r="M50" s="176"/>
-      <c r="N50" s="176"/>
+      <c r="B50" s="160"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="160"/>
+      <c r="K50" s="160"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="160"/>
+      <c r="N50" s="160"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="176" t="s">
+      <c r="A51" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="176"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
-      <c r="E51" s="176"/>
-      <c r="F51" s="176"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
-      <c r="J51" s="176"/>
-      <c r="K51" s="176"/>
-      <c r="L51" s="176"/>
-      <c r="M51" s="176"/>
-      <c r="N51" s="176"/>
+      <c r="B51" s="160"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="160"/>
+      <c r="L51" s="160"/>
+      <c r="M51" s="160"/>
+      <c r="N51" s="160"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="164" t="s">
+      <c r="A52" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="164"/>
-      <c r="C52" s="164"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="164"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="164"/>
-      <c r="K52" s="164"/>
-      <c r="L52" s="164"/>
-      <c r="M52" s="164"/>
-      <c r="N52" s="164"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="161"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="161"/>
+      <c r="H52" s="161"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="161"/>
+      <c r="K52" s="161"/>
+      <c r="L52" s="161"/>
+      <c r="M52" s="161"/>
+      <c r="N52" s="161"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="164"/>
-      <c r="B53" s="164"/>
-      <c r="C53" s="164"/>
-      <c r="D53" s="164"/>
-      <c r="E53" s="164"/>
-      <c r="F53" s="164"/>
-      <c r="G53" s="164"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="164"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="164"/>
-      <c r="M53" s="164"/>
-      <c r="N53" s="164"/>
+      <c r="A53" s="161"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="161"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="161"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="161"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="161"/>
+      <c r="K53" s="161"/>
+      <c r="L53" s="161"/>
+      <c r="M53" s="161"/>
+      <c r="N53" s="161"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
